--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACEC465-41B7-4095-A8FF-78797ECECAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC893D00-91D4-4B83-A501-775B66BE05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -243,6 +243,38 @@
   </si>
   <si>
     <t>Specialadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionEffectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,8 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000000000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -384,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,6 +452,12 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,12 +776,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,9 +795,15 @@
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="13" width="14.5" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -819,8 +864,29 @@
       <c r="T1" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="U1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -881,8 +947,29 @@
       <c r="T2" s="9">
         <v>1.1000000000000001</v>
       </c>
+      <c r="U2" s="13">
+        <v>46</v>
+      </c>
+      <c r="V2">
+        <v>10000</v>
+      </c>
+      <c r="W2" s="13">
+        <v>46</v>
+      </c>
+      <c r="X2">
+        <v>10000</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -943,8 +1030,29 @@
       <c r="T3" s="9">
         <v>1.2</v>
       </c>
+      <c r="U3" s="13">
+        <v>46</v>
+      </c>
+      <c r="V3">
+        <v>10000</v>
+      </c>
+      <c r="W3" s="13">
+        <v>46</v>
+      </c>
+      <c r="X3">
+        <v>10000</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1005,8 +1113,29 @@
       <c r="T4" s="9">
         <v>1.3</v>
       </c>
+      <c r="U4" s="13">
+        <v>46</v>
+      </c>
+      <c r="V4">
+        <v>10000</v>
+      </c>
+      <c r="W4" s="13">
+        <v>46</v>
+      </c>
+      <c r="X4">
+        <v>10000</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1065,10 +1194,31 @@
         <v>10</v>
       </c>
       <c r="T5" s="9">
-        <v>1.4</v>
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="13">
+        <v>46</v>
+      </c>
+      <c r="V5">
+        <v>10000</v>
+      </c>
+      <c r="W5" s="13">
+        <v>46</v>
+      </c>
+      <c r="X5">
+        <v>10000</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1129,8 +1279,29 @@
       <c r="T6" s="2">
         <v>2</v>
       </c>
+      <c r="U6" s="13">
+        <v>46</v>
+      </c>
+      <c r="V6">
+        <v>20000</v>
+      </c>
+      <c r="W6" s="13">
+        <v>46</v>
+      </c>
+      <c r="X6">
+        <v>20000</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1191,8 +1362,29 @@
       <c r="T7" s="2">
         <v>2.1</v>
       </c>
+      <c r="U7" s="13">
+        <v>46</v>
+      </c>
+      <c r="V7">
+        <v>20000</v>
+      </c>
+      <c r="W7" s="13">
+        <v>46</v>
+      </c>
+      <c r="X7">
+        <v>20000</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1253,8 +1445,29 @@
       <c r="T8" s="2">
         <v>2.2000000000000002</v>
       </c>
+      <c r="U8" s="13">
+        <v>46</v>
+      </c>
+      <c r="V8">
+        <v>20000</v>
+      </c>
+      <c r="W8" s="13">
+        <v>46</v>
+      </c>
+      <c r="X8">
+        <v>20000</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1313,10 +1526,31 @@
         <v>10</v>
       </c>
       <c r="T9" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
+      </c>
+      <c r="U9" s="13">
+        <v>46</v>
+      </c>
+      <c r="V9">
+        <v>20000</v>
+      </c>
+      <c r="W9" s="13">
+        <v>46</v>
+      </c>
+      <c r="X9">
+        <v>20000</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1377,8 +1611,29 @@
       <c r="T10" s="9">
         <v>3</v>
       </c>
+      <c r="U10" s="13">
+        <v>46</v>
+      </c>
+      <c r="V10">
+        <v>30000</v>
+      </c>
+      <c r="W10" s="13">
+        <v>46</v>
+      </c>
+      <c r="X10">
+        <v>30000</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1439,8 +1694,29 @@
       <c r="T11" s="9">
         <v>3.1</v>
       </c>
+      <c r="U11" s="13">
+        <v>46</v>
+      </c>
+      <c r="V11">
+        <v>30000</v>
+      </c>
+      <c r="W11" s="13">
+        <v>46</v>
+      </c>
+      <c r="X11">
+        <v>30000</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1501,8 +1777,29 @@
       <c r="T12" s="9">
         <v>3.2</v>
       </c>
+      <c r="U12" s="13">
+        <v>46</v>
+      </c>
+      <c r="V12">
+        <v>30000</v>
+      </c>
+      <c r="W12" s="13">
+        <v>46</v>
+      </c>
+      <c r="X12">
+        <v>30000</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1561,10 +1858,31 @@
         <v>10</v>
       </c>
       <c r="T13" s="9">
-        <v>3.3</v>
+        <v>3.5</v>
+      </c>
+      <c r="U13" s="13">
+        <v>46</v>
+      </c>
+      <c r="V13">
+        <v>30000</v>
+      </c>
+      <c r="W13" s="13">
+        <v>46</v>
+      </c>
+      <c r="X13">
+        <v>30000</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>2000000</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1625,8 +1943,29 @@
       <c r="T14" s="9">
         <v>4</v>
       </c>
+      <c r="U14" s="13">
+        <v>46</v>
+      </c>
+      <c r="V14">
+        <v>40000</v>
+      </c>
+      <c r="W14" s="13">
+        <v>46</v>
+      </c>
+      <c r="X14">
+        <v>40000</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>3000000</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1687,8 +2026,29 @@
       <c r="T15" s="9">
         <v>4.0999999999999996</v>
       </c>
+      <c r="U15" s="13">
+        <v>46</v>
+      </c>
+      <c r="V15">
+        <v>40000</v>
+      </c>
+      <c r="W15" s="13">
+        <v>46</v>
+      </c>
+      <c r="X15">
+        <v>40000</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>3000000</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1749,8 +2109,29 @@
       <c r="T16" s="9">
         <v>4.2</v>
       </c>
+      <c r="U16" s="13">
+        <v>46</v>
+      </c>
+      <c r="V16">
+        <v>40000</v>
+      </c>
+      <c r="W16" s="13">
+        <v>46</v>
+      </c>
+      <c r="X16">
+        <v>40000</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>3000000</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1809,10 +2190,31 @@
         <v>10</v>
       </c>
       <c r="T17" s="9">
-        <v>4.3</v>
+        <v>4.5</v>
+      </c>
+      <c r="U17" s="13">
+        <v>46</v>
+      </c>
+      <c r="V17">
+        <v>40000</v>
+      </c>
+      <c r="W17" s="13">
+        <v>46</v>
+      </c>
+      <c r="X17">
+        <v>40000</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>3000000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1873,8 +2275,29 @@
       <c r="T18" s="9">
         <v>5</v>
       </c>
+      <c r="U18" s="13">
+        <v>46</v>
+      </c>
+      <c r="V18">
+        <v>50000</v>
+      </c>
+      <c r="W18" s="13">
+        <v>46</v>
+      </c>
+      <c r="X18">
+        <v>50000</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1935,8 +2358,29 @@
       <c r="T19" s="9">
         <v>5.0999999999999996</v>
       </c>
+      <c r="U19" s="13">
+        <v>46</v>
+      </c>
+      <c r="V19">
+        <v>50000</v>
+      </c>
+      <c r="W19" s="13">
+        <v>46</v>
+      </c>
+      <c r="X19">
+        <v>50000</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1997,8 +2441,29 @@
       <c r="T20" s="9">
         <v>5.2</v>
       </c>
+      <c r="U20" s="13">
+        <v>46</v>
+      </c>
+      <c r="V20">
+        <v>50000</v>
+      </c>
+      <c r="W20" s="13">
+        <v>46</v>
+      </c>
+      <c r="X20">
+        <v>50000</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2057,10 +2522,31 @@
         <v>10</v>
       </c>
       <c r="T21" s="9">
-        <v>5.3</v>
+        <v>5.5</v>
+      </c>
+      <c r="U21" s="13">
+        <v>46</v>
+      </c>
+      <c r="V21">
+        <v>50000</v>
+      </c>
+      <c r="W21" s="13">
+        <v>46</v>
+      </c>
+      <c r="X21">
+        <v>50000</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>5000000</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2121,8 +2607,29 @@
       <c r="T22" s="9">
         <v>6</v>
       </c>
+      <c r="U22" s="13">
+        <v>46</v>
+      </c>
+      <c r="V22">
+        <v>100000</v>
+      </c>
+      <c r="W22" s="13">
+        <v>46</v>
+      </c>
+      <c r="X22">
+        <v>100000</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>10000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2182,6 +2689,27 @@
       </c>
       <c r="T23" s="9">
         <v>7</v>
+      </c>
+      <c r="U23" s="13">
+        <v>46</v>
+      </c>
+      <c r="V23">
+        <v>100000</v>
+      </c>
+      <c r="W23" s="13">
+        <v>46</v>
+      </c>
+      <c r="X23">
+        <v>100000</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
